--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T18:26:21+00:00</t>
+    <t>2025-12-03T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T15:31:39+00:00</t>
+    <t>2025-12-05T10:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:54:45+00:00</t>
+    <t>2025-12-08T08:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:39+00:00</t>
+    <t>2025-12-10T16:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T16:53:25+00:00</t>
+    <t>2025-12-15T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:12:23+00:00</t>
+    <t>2025-12-15T10:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:59:45+00:00</t>
+    <t>2026-01-07T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:19:48+00:00</t>
+    <t>2026-01-09T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:13:58+00:00</t>
+    <t>2026-01-09T15:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:21:06+00:00</t>
+    <t>2026-01-16T13:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Statut du document</t>
+    <t>Statut du document</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>fr-lm-statut-document-entree.statutDocument</t>
-  </si>
-  <si>
-    <t>Statut du document</t>
   </si>
   <si>
     <t>jdv-statut-document-cisis (1.2.250.1.213.1.1.5.93)</t>
@@ -1411,10 +1408,10 @@
         <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1444,7 +1441,7 @@
         <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>73</v>
@@ -1482,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1508,13 +1505,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1565,7 +1562,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
